--- a/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6388B38-2F57-4C08-9884-C34CF8B515C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6064D7FC-E9BE-4CFD-95AE-5201B3A95B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10150" yWindow="1990" windowWidth="21260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32100" yWindow="1320" windowWidth="24930" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="core_connections" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>instance</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -161,6 +161,65 @@
   <si>
     <t>$.$</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_cortex_a7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vwrap_arm_cortexa7_triple_dsm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a7_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./input/pnai70x/vwrap_arm_cortexa7_triple_dsm.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_DS0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_DS1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>contro_PE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_PS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_IS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_SR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_sel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_test_sel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>port/value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2t</t>
   </si>
 </sst>
 </file>
@@ -409,26 +468,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -788,20 +847,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -823,36 +882,36 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
@@ -868,7 +927,7 @@
       <c r="E4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -888,57 +947,127 @@
       <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -948,13 +1077,8 @@
     <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="notEqual">
-      <formula>"level-high"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A15" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
       <formula1>"p2p,p2t,tie,bus_group,pattern,alp_vip"</formula1>
     </dataValidation>
   </dataValidations>
@@ -965,18 +1089,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA08F32-0BC4-47A8-812A-027290BA8F95}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.4140625" customWidth="1"/>
-    <col min="4" max="4" width="40.9140625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" hidden="1">
@@ -1009,43 +1133,45 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
@@ -1167,6 +1293,12 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6064D7FC-E9BE-4CFD-95AE-5201B3A95B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692325D9-0958-4762-A398-D0B5EDA49083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="1320" windowWidth="24930" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="2680" windowWidth="21260" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="core_connections" sheetId="3" r:id="rId1"/>
     <sheet name="rtl_list" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">core_connections!$B$2:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">core_connections!$B$2:$C$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,20 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>instance</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>source</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -59,22 +51,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>src_port</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>src_inst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>trg_inst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>trg_port</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>port</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -187,10 +163,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>contro_PE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>control_PS</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -215,11 +187,82 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>port/value</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2t</t>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>control_PE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+  </si>
+  <si>
+    <t>u_cortex_a7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mst_inst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mst_port</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slv_port</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slv_inst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>port / value(tie)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_irqs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_cpu_interrupt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_soc_irq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_nfiq</t>
+  </si>
+  <si>
+    <t>i_nirq</t>
+  </si>
+  <si>
+    <t>i_nvfiq</t>
+  </si>
+  <si>
+    <t>i_nvirq</t>
+  </si>
+  <si>
+    <t>pad control tie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32'h0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>230'h3ffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -497,15 +540,7 @@
     <cellStyle name="표준 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="標準_2010_0617_INTERRUPT_001" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -847,54 +882,54 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.08203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" hidden="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="16" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -903,171 +938,287 @@
         <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>31</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10">
+        <v>39</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10">
-        <v>1</v>
+      <c r="A7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>38</v>
+      <c r="E7" s="10">
+        <v>0</v>
       </c>
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
+      <c r="B9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10"/>
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10">
-        <v>0</v>
+      <c r="A11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="10">
-        <v>0</v>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="10">
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="10">
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1078,7 +1229,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A15" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A20" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
       <formula1>"p2p,p2t,tie,bus_group,pattern,alp_vip"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1091,87 +1242,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA08F32-0BC4-47A8-812A-027290BA8F95}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" hidden="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>

--- a/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692325D9-0958-4762-A398-D0B5EDA49083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A5303-C03C-4585-8EB7-B609C5858D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2680" windowWidth="21260" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="1395" windowWidth="24930" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="core_connections" sheetId="3" r:id="rId1"/>
     <sheet name="rtl_list" sheetId="4" r:id="rId2"/>
+    <sheet name="manual" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">core_connections!$B$2:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">core_connections!$B$2:$C$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>instance</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -103,19 +104,169 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>cpu_hpdf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./input/pnai70x/cpu_hpdf.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>u_cpu_hpdf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu_hpdf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./input/pnai70x/cpu_hpdf.v</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_peri_hpdf to core_top</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dma330 request</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vwrap_arm_cortexa7_triple_dsm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a7_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./input/pnai70x/vwrap_arm_cortexa7_triple_dsm.v</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_DS0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_DS1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_PS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_IS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>control_SR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_sel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_sel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>func_test_sel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>control_PE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_cortex_a7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mst_inst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mst_port</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slv_port</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>slv_inst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_irqs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_cpu_interrupt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_soc_irq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_nfiq</t>
+  </si>
+  <si>
+    <t>i_nirq</t>
+  </si>
+  <si>
+    <t>i_nvfiq</t>
+  </si>
+  <si>
+    <t>i_nvirq</t>
+  </si>
+  <si>
+    <t>pad control tie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>32'h0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>230'h3ffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alp_vip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port / value(tie) / </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_alp_vip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_peri_hpdf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apb$.peri_$_codec_hpdf_m3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_group</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -123,153 +274,219 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Description</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_peri_hpdf to core_top</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>dma330 request</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>axi$.cpu_$_m4_cpu2peri</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.peri_sub_o_dmac_$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alp_vip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus 간의 연결을 한다. (bus_symbol 사용)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus에 alp_vip 을 연결한다. (bus_symbol, clock/reset 연결)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance port 와 top port 간의 연결할 때</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance 간의 port to port 연결할때 (instance name이 없는 경우 top으로 인식한다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">instance/top port에 상수 값을 tie 시킬때 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 간 연결시 symbol 을 사용하여 연결한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;prefix&gt;$&lt;surfix&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;prefix&gt; 는 신호 앞에 오는 신호의 특징을 기술한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;surfix&gt; 는 신호 뒤에 오는 신호의 특징을 기술한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_symbol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol 앞에 bus_type이 붙는다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type 은 apb/ahb/axi 를 지원한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axi$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>$.$</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_cortex_a7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vwrap_arm_cortexa7_triple_dsm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>a7_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>./input/pnai70x/vwrap_arm_cortexa7_triple_dsm.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>control_DS0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>control_DS1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>control_PS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>control_IS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>control_SR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>func_sel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_sel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>func_test_sel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tie</t>
-  </si>
-  <si>
-    <t>control_PE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-  </si>
-  <si>
-    <t>u_cortex_a7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>master</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>slave</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mst_inst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mst_port</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>slv_port</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>slv_inst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>port / value(tie)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_irqs</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_cpu_interrupt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_soc_irq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_nfiq</t>
-  </si>
-  <si>
-    <t>i_nirq</t>
-  </si>
-  <si>
-    <t>i_nvfiq</t>
-  </si>
-  <si>
-    <t>i_nvirq</t>
-  </si>
-  <si>
-    <t>pad control tie</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>32'h0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>230'h3ffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix 에 port dir 있는 경우를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_port or i_port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfix 에 port dir 있는 경우를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port_o or port_i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.cpu_$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix 에 port dir/prefix가 경우를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_cpu_port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXI$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus name 의 첫글자가 대문자를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus name 의 모든 글자가 대문자를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awvalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWVALID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>axi$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus name 이 모두 소문자임을 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>awvalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>axi$.cpu_$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_cpu_awvalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_psel_m3_peri2main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apb$.$_m3_peri2main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_hpdf to peri_hpdf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.cpu_sub_$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>./input/pnai70x/vbus_mi.svp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vbus_mi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vbus_cpu_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_vbus_cpu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +553,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -472,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -531,6 +754,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -882,20 +1108,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="63" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -904,16 +1130,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -921,15 +1147,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -944,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F3" s="20"/>
     </row>
@@ -963,84 +1189,74 @@
         <v>3</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>52</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E5" s="10"/>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A7" s="6"/>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15"/>
+        <v>62</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A8" s="6"/>
       <c r="B8" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10">
@@ -1049,176 +1265,237 @@
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <v>0</v>
+      <c r="E13" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <v>0</v>
+      <c r="E15" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <v>0</v>
+      <c r="E16" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10">
         <v>0</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
         <v>0</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10">
         <v>0</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1229,7 +1506,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A20" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A24" xr:uid="{0F3D22B6-D151-414D-8619-DCA593D9BDF7}">
       <formula1>"p2p,p2t,tie,bus_group,pattern,alp_vip"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1242,16 +1519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA08F32-0BC4-47A8-812A-027290BA8F95}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" hidden="1">
@@ -1283,17 +1560,15 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1311,24 +1586,30 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="12"/>
@@ -1460,4 +1741,205 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AB178C-A9FA-42FE-BDD6-8DD930B136E7}">
+  <dimension ref="A3:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="65.875" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A5303-C03C-4585-8EB7-B609C5858D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647E2BF-3794-42A5-985D-2AB7D5B29121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="1395" windowWidth="24930" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="21260" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="core_connections" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
   <si>
     <t>instance</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -247,238 +247,261 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">port / value(tie) / </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_alp_vip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_peri_hpdf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>apb$.peri_$_codec_hpdf_m3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_cpu_hpdf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axi$.cpu_$_m4_cpu2peri</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.peri_sub_o_dmac_$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>alp_vip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">port / value(tie) / </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_alp_vip</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_peri_hpdf</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>apb$.peri_$_codec_hpdf_m3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus 간의 연결을 한다. (bus_symbol 사용)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus에 alp_vip 을 연결한다. (bus_symbol, clock/reset 연결)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>connection type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2t</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance port 와 top port 간의 연결할 때</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>instance 간의 port to port 연결할때 (instance name이 없는 경우 top으로 인식한다.)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">instance/top port에 상수 값을 tie 시킬때 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port 간 연결시 symbol 을 사용하여 연결한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$&lt;prefix&gt;$&lt;surfix&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;prefix&gt; 는 신호 앞에 오는 신호의 특징을 기술한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;surfix&gt; 는 신호 뒤에 오는 신호의 특징을 기술한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_symbol</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>symbol 앞에 bus_type이 붙는다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_type 은 apb/ahb/axi 를 지원한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axi$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix 에 port dir 있는 경우를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_port or i_port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>surfix 에 port dir 있는 경우를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port_o or port_i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.cpu_$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix 에 port dir/prefix가 경우를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_cpu_port</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXI$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus name 의 첫글자가 대문자를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus name 의 모든 글자가 대문자를 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awvalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWVALID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>axi$$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus name 이 모두 소문자임을 의미한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>awvalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>axi$.cpu_$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_cpu_awvalid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_psel_m3_peri2main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apb$.$_m3_peri2main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu_hpdf to peri_hpdf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.cpu_sub_$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>./input/pnai70x/vbus_mi.svp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vbus_mi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vbus_cpu_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_vbus_cpu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>bus_group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>u_cpu_hpdf</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>axi$.cpu_$_m4_cpu2peri</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.peri_sub_o_dmac_$</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>alp_vip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus 간의 연결을 한다. (bus_symbol 사용)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus에 alp_vip 을 연결한다. (bus_symbol, clock/reset 연결)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pattern</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>connection type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2p</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2t</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tie</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance port 와 top port 간의 연결할 때</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance 간의 port to port 연결할때 (instance name이 없는 경우 top으로 인식한다.)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">instance/top port에 상수 값을 tie 시킬때 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>port 간 연결시 symbol 을 사용하여 연결한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>symbol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$&lt;prefix&gt;$&lt;surfix&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;prefix&gt; 는 신호 앞에 오는 신호의 특징을 기술한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;surfix&gt; 는 신호 뒤에 오는 신호의 특징을 기술한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_symbol</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_type$$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>symbol 앞에 bus_type이 붙는다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus_type 은 apb/ahb/axi 를 지원한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axi$$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefix 에 port dir 있는 경우를 의미한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_port or i_port</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$$.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>surfix 에 port dir 있는 경우를 의미한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>port_o or port_i</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.cpu_$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefix 에 port dir/prefix가 경우를 의미한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_cpu_port</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AXI$$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus name 의 첫글자가 대문자를 의미한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus name 의 모든 글자가 대문자를 의미한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Awvalid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWVALID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>axi$$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bus name 이 모두 소문자임을 의미한다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>awvalid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>axi$.cpu_$</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_cpu_awvalid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o_psel_m3_peri2main</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>apb$.$_m3_peri2main</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu_hpdf to peri_hpdf</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.cpu_sub_$</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>./input/pnai70x/vbus_mi.svp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vbus_mi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vbus_cpu_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>u_vbus_cpu</t>
+  </si>
+  <si>
+    <t>vip connection</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>axi$.$</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bus_group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"IW":11, "DW":32}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -740,6 +763,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,9 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1110,18 +1133,18 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.08203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1143,23 +1166,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1170,9 +1193,9 @@
         <v>0</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
@@ -1193,45 +1216,57 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="15"/>
+      <c r="A6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="6"/>
       <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1312,13 +1347,13 @@
         <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>24</v>
@@ -1330,13 +1365,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>24</v>
@@ -1495,7 +1530,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="C28" s="21"/>
+      <c r="C28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1517,21 +1552,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA08F32-0BC4-47A8-812A-027290BA8F95}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" hidden="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1544,8 +1580,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -1558,8 +1597,11 @@
       <c r="D2" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="12"/>
       <c r="B3" s="12" t="s">
         <v>25</v>
@@ -1570,8 +1612,9 @@
       <c r="D3" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -1584,8 +1627,9 @@
       <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>18</v>
@@ -1596,146 +1640,171 @@
       <c r="D5" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="D6" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1751,191 +1820,191 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="65.875" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
         <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
         <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>102</v>
-      </c>
-      <c r="D24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0647E2BF-3794-42A5-985D-2AB7D5B29121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B6D09-4CA6-443B-8B22-70DEA81D427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="21260" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33015" yWindow="900" windowWidth="24930" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="core_connections" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
   <si>
     <t>instance</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -502,6 +502,13 @@
   </si>
   <si>
     <t>{"IW":11, "DW":32}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2p</t>
+  </si>
+  <si>
+    <t>u_cortex_a7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1134,17 +1141,17 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1270,7 +1277,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
@@ -1555,16 +1564,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1602,7 +1611,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="B3" s="12" t="s">
         <v>25</v>
       </c>
@@ -1820,12 +1831,12 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="65.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="65.875" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">

--- a/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
+++ b/v1p1/input/pnai70x/PNAI70X_core_top_connection_2022_0321.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419B6D09-4CA6-443B-8B22-70DEA81D427E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB5CABC-6199-4DF0-BFD3-7C5FAE0C0220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33015" yWindow="900" windowWidth="24930" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="21260" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="core_connections" sheetId="3" r:id="rId1"/>
@@ -501,14 +501,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{"IW":11, "DW":32}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>p2p</t>
   </si>
   <si>
     <t>u_cortex_a7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IW: 11, DW:32, ADDR_BASE: 0, ADDR_LAST: 32'hFFFFFFFF</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1144,14 +1144,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.08203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>38</v>
@@ -1563,17 +1563,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA08F32-0BC4-47A8-812A-027290BA8F95}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>25</v>
@@ -1667,7 +1667,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1820,6 +1820,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1831,12 +1832,12 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="65.875" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3">
